--- a/documentacao/burndown.xlsx
+++ b/documentacao/burndown.xlsx
@@ -146,7 +146,7 @@
     <t xml:space="preserve"> Total de horas</t>
   </si>
   <si>
-    <t>Diagramas</t>
+    <t>Documentação</t>
   </si>
 </sst>
 </file>
@@ -2842,8 +2842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3862,7 +3862,9 @@
       <c r="B19" s="4">
         <v>5</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -3890,7 +3892,9 @@
       <c r="B20" s="4">
         <v>10</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="4">
+        <v>0</v>
+      </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -3918,7 +3922,9 @@
       <c r="B21" s="4">
         <v>5</v>
       </c>
-      <c r="C21" s="4"/>
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -3946,7 +3952,9 @@
       <c r="B22" s="4">
         <v>5</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -3974,7 +3982,9 @@
       <c r="B23" s="4">
         <v>2</v>
       </c>
-      <c r="C23" s="4"/>
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -4030,7 +4040,9 @@
       <c r="B25" s="4">
         <v>7</v>
       </c>
-      <c r="C25" s="4"/>
+      <c r="C25" s="4">
+        <v>0</v>
+      </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
